--- a/biology/Médecine/Syndrome_de_Cornelia_de_Lange/Syndrome_de_Cornelia_de_Lange.xlsx
+++ b/biology/Médecine/Syndrome_de_Cornelia_de_Lange/Syndrome_de_Cornelia_de_Lange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Cornelia de Lange ou syndrome de Brachmann-de Lange est une maladie génétique associant un visage caractéristique avec synophris, un retard de croissance intra utérin avec microcéphalie, un hirsutisme, un comportement agressif et des anomalies des membres supérieurs atteignant surtout les doigts allant d'anomalies très légères à une oligodactylie (diminution du nombre de doigts ou d'orteils).
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachmann le décrit dès 1916[1] mais Cornelia de Lange en publie la description en 1933[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachmann le décrit dès 1916 mais Cornelia de Lange en publie la description en 1933.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des mutations sur plusieurs gènes ont été identifiées : sur le NIPBL, responsable de la synthèse de la delangine[3] et membre de la famille des cohésines, sur le SMC1L1[4], codant une autre cohésine, sur le SMC3 et le SMC1A[5].
-Un mosaïcisme est retrouvé dans un peu moins d'un quart des cas[6].
-Des mutations sur d'autres gènes donnent des syndromes apparentés, appelés « cohésinopathies », comme celles concernant le gène RAD21, entraînant une dysmorphie semblable mais moins de retard intellectuel[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des mutations sur plusieurs gènes ont été identifiées : sur le NIPBL, responsable de la synthèse de la delangine et membre de la famille des cohésines, sur le SMC1L1, codant une autre cohésine, sur le SMC3 et le SMC1A.
+Un mosaïcisme est retrouvé dans un peu moins d'un quart des cas.
+Des mutations sur d'autres gènes donnent des syndromes apparentés, appelés « cohésinopathies », comme celles concernant le gène RAD21, entraînant une dysmorphie semblable mais moins de retard intellectuel.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Se fait essentiellement sur la clinique :
 aspect du visage
@@ -617,7 +635,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'aspect de ces enfants peut se rencontrer dans :
 duplication partielle du bras long du chromosome 3
